--- a/钱包/任务安排20180806.xlsx
+++ b/钱包/任务安排20180806.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="实际工时">#REF!</definedName>
     <definedName name="饮料">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>律玲玲</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -76,127 +76,138 @@
     <t>0x06fc90902a515fbf4ddd7368545fa3d83fefcc45</t>
   </si>
   <si>
+    <t>4.导出私钥，四个账户</t>
+  </si>
+  <si>
+    <t>资金管理后台，页面刷新不及时</t>
+  </si>
+  <si>
+    <t>3.资金管理后台，优先搜索是否是该平台账户，再显示交易记录。</t>
+  </si>
+  <si>
+    <t>汇兑刚好和HGS余额相等时候，会出现余额不足。</t>
+  </si>
+  <si>
+    <t>汇兑缺少to余额</t>
+  </si>
+  <si>
+    <t>nz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nz-搭建框架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>律玲玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张栋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张栋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包APP后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量转币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张栋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇率管理：eth、hnb、hgs，eth自动更新，hnb可设置对eth汇率，hgs设置对美元汇率。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP消息和公告模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包服务后台，一键开关交易。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密接口已经写好，等前端调试好，加入解密逻辑即可测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择转出账号，导入转入账号与金额，列表展示，输入密码确认转账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号与build内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增删改查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构自带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调研</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天晚上应该可以提供出来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eth行情没有变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情缺少很多东西（转账from、to，都可以被复制）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>已完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4.导出私钥，四个账户</t>
-  </si>
-  <si>
-    <t>资金管理后台，页面刷新不及时</t>
-  </si>
-  <si>
-    <t>3.资金管理后台，优先搜索是否是该平台账户，再显示交易记录。</t>
-  </si>
-  <si>
-    <t>汇兑刚好和HGS余额相等时候，会出现余额不足。</t>
-  </si>
-  <si>
-    <t>详情缺少很多东西（转账from、to，都可以被复制）</t>
-  </si>
-  <si>
-    <t>汇兑缺少to余额</t>
-  </si>
-  <si>
     <t>token还是很快失效</t>
-  </si>
-  <si>
-    <t>eth行情没有变化</t>
-  </si>
-  <si>
-    <t>nz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nz-搭建框架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>律玲玲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>张栋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张栋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>redis的时间已经设置了，需要部署到测试环境验证下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先获取相对的汇率，然后做下转换，不需要存入数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>参考转账</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先获取相对的汇率，然后做下转换，不需要存入数据库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>redis的时间已经设置了，需要部署到测试环境验证下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱包APP后台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量转币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张栋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇率管理：eth、hnb、hgs，eth自动更新，hnb可设置对eth汇率，hgs设置对美元汇率。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP消息和公告模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱包服务后台，一键开关交易。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密接口已经写好，等前端调试好，加入解密逻辑即可测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择转出账号，导入转入账号与金额，列表展示，输入密码确认转账</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号与build内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增删改查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>架构自带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要调研</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明天晚上应该可以提供出来</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +231,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -256,8 +275,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -265,6 +284,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -277,7 +364,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="概要"/>
@@ -340,14 +427,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -382,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,10 +501,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,7 +535,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -625,74 +710,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="82.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -700,106 +786,106 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -807,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -815,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,21 +912,21 @@
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -848,30 +934,30 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/钱包/任务安排20180806.xlsx
+++ b/钱包/任务安排20180806.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -61,153 +61,154 @@
     <t>公告管理</t>
   </si>
   <si>
+    <t>0xbf1718ef0cc51a01287d99c3cf3558049bab0c3b</t>
+  </si>
+  <si>
+    <t>0xfe1617cb16c6759df9cf4f623eb95713f53a9bbd</t>
+  </si>
+  <si>
+    <t>0xc177dee3df0d429bd694de846cdc7aaff86778fa</t>
+  </si>
+  <si>
+    <t>0x06fc90902a515fbf4ddd7368545fa3d83fefcc45</t>
+  </si>
+  <si>
+    <t>4.导出私钥，四个账户</t>
+  </si>
+  <si>
+    <t>资金管理后台，页面刷新不及时</t>
+  </si>
+  <si>
+    <t>3.资金管理后台，优先搜索是否是该平台账户，再显示交易记录。</t>
+  </si>
+  <si>
+    <t>汇兑刚好和HGS余额相等时候，会出现余额不足。</t>
+  </si>
+  <si>
+    <t>汇兑缺少to余额</t>
+  </si>
+  <si>
+    <t>nz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nz-搭建框架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>律玲玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张栋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张栋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包APP后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量转币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张栋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP消息和公告模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包服务后台，一键开关交易。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密接口已经写好，等前端调试好，加入解密逻辑即可测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择转出账号，导入转入账号与金额，列表展示，输入密码确认转账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号与build内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增删改查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构自带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调研</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天晚上应该可以提供出来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eth行情没有变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情缺少很多东西（转账from、to，都可以被复制）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>token还是很快失效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>律玲玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis的时间已经设置了，需要部署到测试环境验证下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先获取相对的汇率，然后做下转换，不需要存入数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考转账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>用户管理：资金管理、交易记录（对等待中交易，做失败处理）</t>
-  </si>
-  <si>
-    <t>0xbf1718ef0cc51a01287d99c3cf3558049bab0c3b</t>
-  </si>
-  <si>
-    <t>0xfe1617cb16c6759df9cf4f623eb95713f53a9bbd</t>
-  </si>
-  <si>
-    <t>0xc177dee3df0d429bd694de846cdc7aaff86778fa</t>
-  </si>
-  <si>
-    <t>0x06fc90902a515fbf4ddd7368545fa3d83fefcc45</t>
-  </si>
-  <si>
-    <t>4.导出私钥，四个账户</t>
-  </si>
-  <si>
-    <t>资金管理后台，页面刷新不及时</t>
-  </si>
-  <si>
-    <t>3.资金管理后台，优先搜索是否是该平台账户，再显示交易记录。</t>
-  </si>
-  <si>
-    <t>汇兑刚好和HGS余额相等时候，会出现余额不足。</t>
-  </si>
-  <si>
-    <t>汇兑缺少to余额</t>
-  </si>
-  <si>
-    <t>nz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nz-搭建框架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>律玲玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张栋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张栋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱包APP后台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量转币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张栋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>汇率管理：eth、hnb、hgs，eth自动更新，hnb可设置对eth汇率，hgs设置对美元汇率。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP消息和公告模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱包服务后台，一键开关交易。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密接口已经写好，等前端调试好，加入解密逻辑即可测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择转出账号，导入转入账号与金额，列表展示，输入密码确认转账</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号与build内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增删改查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>架构自带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要调研</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明天晚上应该可以提供出来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eth行情没有变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情缺少很多东西（转账from、to，都可以被复制）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>token还是很快失效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>律玲玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>redis的时间已经设置了，需要部署到测试环境验证下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先获取相对的汇率，然后做下转换，不需要存入数据库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考转账</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +244,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -271,12 +279,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -284,74 +293,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -364,7 +305,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="概要"/>
@@ -427,14 +368,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -469,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,9 +442,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,6 +477,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -710,201 +653,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,52 +856,52 @@
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
